--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFF204-120D-4C31-94E0-36DA1A3AF5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984F6819-D24D-4BFC-A963-0B8DA38F69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1695" windowWidth="21480" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
+    <workbookView xWindow="5190" yWindow="1695" windowWidth="23550" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,46 @@
   </si>
   <si>
     <t>KillMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageClear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비lV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비lll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,15 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
@@ -550,7 +592,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -559,28 +601,224 @@
         <v>16</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>30000000</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>30000000</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>30000000</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>30000000</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984F6819-D24D-4BFC-A963-0B8DA38F69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE94D5FE-37B1-4A6D-BFF2-71AF452CB6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1695" windowWidth="23550" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KillMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뉴비V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +135,42 @@
   </si>
   <si>
     <t>숙련자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 10 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 100 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 500 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 1000 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10 층 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 15 층 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 20 층 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 5 층 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 25 층 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,12 +558,12 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
@@ -592,13 +620,13 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>30000000</v>
@@ -618,13 +646,13 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>30000000</v>
@@ -644,13 +672,13 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4">
         <v>30000000</v>
@@ -673,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
       <c r="E5">
         <v>30000000</v>
@@ -696,19 +724,19 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>30000000</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -722,13 +750,13 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -748,13 +776,13 @@
         <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -774,13 +802,13 @@
         <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -800,13 +828,13 @@
         <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>25</v>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE94D5FE-37B1-4A6D-BFF2-71AF452CB6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD0BD4-BF20-47EA-8840-66879F917A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>30000000</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>30000000</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>30000000</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>30000000</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -730,13 +730,13 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>30000000</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>17</v>
       </c>
       <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>17</v>
       </c>
       <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
         <v>25</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD0BD4-BF20-47EA-8840-66879F917A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08BBE3F-3D2D-4590-8A5A-8751E3F92EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08BBE3F-3D2D-4590-8A5A-8751E3F92EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185FEF72-D3D5-4DA5-8835-1FC3D0B43F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>스테이지 25 층 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStorable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,12 +570,15 @@
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,25 +604,28 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -640,8 +650,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -666,8 +679,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
@@ -692,8 +708,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
@@ -718,8 +737,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>200</v>
       </c>
@@ -744,8 +766,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>201</v>
       </c>
@@ -770,8 +795,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>202</v>
       </c>
@@ -796,8 +824,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>203</v>
       </c>
@@ -822,8 +853,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>204</v>
       </c>
@@ -846,6 +880,9 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185FEF72-D3D5-4DA5-8835-1FC3D0B43F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4DCD3C-B590-4B09-A737-FB641D66D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
+    <workbookView xWindow="855" yWindow="1890" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,50 +94,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학살자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KillMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StageClear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뉴비V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비lV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비lll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙련자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 10 마리 처치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,23 +122,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스테이지 5 층 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStorable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레티넘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에메랄드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 2000 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 3000 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 4000 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 5000 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 6000 마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>스테이지 15 층 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스테이지 20 층 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 5 층 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스테이지 25 층 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isStorable</t>
+  </si>
+  <si>
+    <t>스테이지 30 층 클리어</t>
+  </si>
+  <si>
+    <t>스테이지 35 층 클리어</t>
+  </si>
+  <si>
+    <t>스테이지 40 층 클리어</t>
+  </si>
+  <si>
+    <t>넌 못 지나간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오직 시시포스만..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간은 금이라구 친구~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trust me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cake is a lie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 안은 생각보다 
+쉬운데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대를 하니까 배신을 
+당하는 거다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봐주는 건 
+여기까지입니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,9 +282,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,14 +623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -604,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -630,13 +695,13 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -662,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -688,13 +753,13 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -717,13 +782,13 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -743,22 +808,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -767,27 +832,27 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -796,27 +861,27 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
       <c r="F8">
-        <v>15</v>
+        <v>4000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -825,27 +890,27 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>5000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -854,35 +919,267 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>6000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>203</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>204</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>205</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4DCD3C-B590-4B09-A737-FB641D66D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0626879-A4A4-4453-8FAE-BCBBA3E4A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="1890" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,57 @@
     <t>봐주는 건 
 여기까지입니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 소모하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500 골드 사용하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 죽이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 칸 확장하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 20 칸 확장하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 장착하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 5개 장착한 상태로 죽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번에 10층 클리어 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 200마리 죽이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
   </si>
 </sst>
 </file>
@@ -623,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
@@ -1183,6 +1234,151 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>1500</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>304</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0626879-A4A4-4453-8FAE-BCBBA3E4A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEF7E5-8AA2-4AD7-A439-15AFADBF7198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1890" windowWidth="26415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
+    <workbookView xWindow="5340" yWindow="2850" windowWidth="23415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1234,9 +1234,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -1262,10 +1262,22 @@
       <c r="I19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -1291,10 +1303,22 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -1320,10 +1344,22 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+      <c r="L21">
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -1349,10 +1385,22 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -1377,6 +1425,18 @@
       </c>
       <c r="I23" t="b">
         <v>0</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEF7E5-8AA2-4AD7-A439-15AFADBF7198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D43FF7C-3E89-4AC7-A032-7E8A4D459E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2850" windowWidth="23415" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
+    <workbookView xWindow="2955" yWindow="2550" windowWidth="25305" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1263,13 +1263,13 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>11</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <v>11</v>
@@ -1345,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>12</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>12</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>13</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22">
         <v>13</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>14</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23">
         <v>14</v>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D43FF7C-3E89-4AC7-A032-7E8A4D459E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183865E8-8A5C-4456-8918-CD5F7FE14824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2550" windowWidth="25305" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -275,19 +275,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기 5개 장착한 상태로 죽기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 번에 10층 클리어 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 200마리 죽이기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equip</t>
+  </si>
+  <si>
+    <t>한 번에 10층 도달하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 5개 이상 장착한 상태로 죽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,14 +676,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
@@ -1283,7 +1283,7 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1324,7 +1324,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1406,10 +1406,10 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>50</v>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183865E8-8A5C-4456-8918-CD5F7FE14824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EABB60-DE4C-4900-AC03-5AB2A08B7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2550" windowWidth="25305" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,15 @@
   <si>
     <t>무기 5개 이상 장착한 상태로 죽기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>_mode</t>
+  </si>
+  <si>
+    <t>DailyQuest</t>
   </si>
 </sst>
 </file>
@@ -674,27 +683,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,43 +716,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -752,25 +766,28 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -781,25 +798,28 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
@@ -810,25 +830,28 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>500</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
@@ -839,25 +862,28 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104</v>
       </c>
@@ -868,25 +894,28 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2000</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -897,25 +926,28 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -926,25 +958,28 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4000</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="b">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>107</v>
       </c>
@@ -955,25 +990,28 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5000</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="b">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>108</v>
       </c>
@@ -984,25 +1022,28 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6000</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="b">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1013,25 +1054,28 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
       <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>201</v>
       </c>
@@ -1042,25 +1086,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>202</v>
       </c>
@@ -1071,25 +1118,28 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
       <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>203</v>
       </c>
@@ -1100,25 +1150,28 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
       <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
         <v>20</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>204</v>
       </c>
@@ -1129,25 +1182,28 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
       <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
         <v>25</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1158,25 +1214,28 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
       <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
         <v>30</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1187,25 +1246,28 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
       <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
         <v>35</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1216,25 +1278,28 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
       <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <v>40</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>310</v>
       </c>
@@ -1245,26 +1310,26 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1500</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="b">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
       <c r="K19">
         <v>10</v>
       </c>
@@ -1274,8 +1339,11 @@
       <c r="M19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -1286,37 +1354,40 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
       </c>
       <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
         <v>11</v>
       </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
       <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -1327,37 +1398,40 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>30</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>200</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="b">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
       <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
         <v>12</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>340</v>
       </c>
@@ -1368,37 +1442,40 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>40</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>20</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="b">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
       <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
         <v>13</v>
       </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
       <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>350</v>
       </c>
@@ -1409,33 +1486,36 @@
         <v>63</v>
       </c>
       <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>50</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
       </c>
       <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
         <v>14</v>
       </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
       <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
         <v>14</v>
       </c>
     </row>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EABB60-DE4C-4900-AC03-5AB2A08B7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CEFB2-F14A-4E89-93FD-E70AE4CC3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2550" windowWidth="25305" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,6 +786,12 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -818,6 +824,12 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -850,6 +862,12 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -882,6 +900,12 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -914,6 +938,12 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -946,6 +976,12 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -978,6 +1014,12 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1010,6 +1052,12 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1042,6 +1090,12 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1074,6 +1128,12 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1106,6 +1166,12 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1138,6 +1204,12 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1170,6 +1242,12 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1202,6 +1280,12 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1234,8 +1318,14 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1266,8 +1356,14 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1298,8 +1394,14 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>310</v>
       </c>
@@ -1334,16 +1436,10 @@
         <v>10</v>
       </c>
       <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -1378,16 +1474,10 @@
         <v>10</v>
       </c>
       <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>10</v>
-      </c>
-      <c r="N20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -1422,16 +1512,10 @@
         <v>10</v>
       </c>
       <c r="L21">
-        <v>12</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>340</v>
       </c>
@@ -1466,16 +1550,10 @@
         <v>10</v>
       </c>
       <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>350</v>
       </c>
@@ -1510,13 +1588,7 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Quest/QuestDataSheet.xlsx
+++ b/Assets/Excel/Quest/QuestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CEFB2-F14A-4E89-93FD-E70AE4CC3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A467975-28D0-4033-A8ED-0C2386D8A064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2550" windowWidth="25305" windowHeight="12540" xr2:uid="{860110ED-E007-4EFA-888C-77285879B13F}"/>
   </bookViews>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>골드 소모하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UseGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,18 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 죽이기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리 칸 확장하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인벤토리 20 칸 확장하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기 장착하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 200마리 죽이기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +277,26 @@
   </si>
   <si>
     <t>DailyQuest</t>
+  </si>
+  <si>
+    <t>강해지는 방법1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해지는 방법2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해지는 방법3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해지는 방법4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해지는 방법5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -685,14 +685,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90E584-EC83-402E-93AA-F76091B3441E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -804,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -842,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -918,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -956,7 +956,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -994,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1070,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1108,7 +1108,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1146,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1184,7 +1184,7 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1222,7 +1222,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1298,7 +1298,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1336,7 +1336,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1374,7 +1374,7 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1406,16 +1406,16 @@
         <v>310</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1444,13 +1444,13 @@
         <v>320</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1482,13 +1482,13 @@
         <v>330</v>
       </c>
       <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -1520,16 +1520,16 @@
         <v>340</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>40</v>
@@ -1558,16 +1558,16 @@
         <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>50</v>
